--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1480350.482720172</v>
+        <v>-1486212.802755351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13603845.31547394</v>
+        <v>13602665.3566931</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.5504418977398</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>67.22535647967148</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.2483168457443</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>72.19538777852465</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -883,7 +883,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.40587073476983</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>191.6685682437092</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>74.66302516138845</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>157.8477843580042</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>112.4146879222726</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>295.8850143075477</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.419053599019</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>27.32710805344453</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>125.9043455999592</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>14.20885537859104</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>66.07868710087349</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>213.7510553561041</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>51.40265878769281</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>19.76753335019722</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>40.11691332848181</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541635</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1746.775898523737</v>
+        <v>1251.2261099561</v>
       </c>
       <c r="C2" t="n">
-        <v>1719.957270344202</v>
+        <v>858.0506084590309</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.51614156087</v>
+        <v>858.0506084590309</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774146</v>
+        <v>455.4670835755754</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>442.6130491459572</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>433.4906976743644</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>109.4076472408551</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523737</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523737</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="V2" t="n">
-        <v>1746.775898523737</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.775898523737</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.775898523737</v>
+        <v>1647.716819035499</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.775898523737</v>
+        <v>1251.2261099561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>352.6149108923297</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>352.6149108923297</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>870.0256351781691</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>870.0256351781691</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>870.0256351781691</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>870.0256351781691</v>
       </c>
       <c r="V4" t="n">
-        <v>784.0184448639509</v>
+        <v>870.0256351781691</v>
       </c>
       <c r="W4" t="n">
-        <v>500.6880427951286</v>
+        <v>586.6952331093466</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>352.6149108923297</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>352.6149108923297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.973020717819</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979534</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477964</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>135.6402479253949</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253949</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253949</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354875</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>2052.530145155537</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172347</v>
+        <v>2052.530145155537</v>
       </c>
       <c r="V5" t="n">
-        <v>1725.425625784762</v>
+        <v>2052.530145155537</v>
       </c>
       <c r="W5" t="n">
-        <v>1725.425625784762</v>
+        <v>2052.530145155537</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.973020717819</v>
+        <v>2052.530145155537</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.973020717819</v>
+        <v>1656.039436076138</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.1700734452586</v>
+        <v>410.3406887648017</v>
       </c>
       <c r="C7" t="n">
-        <v>502.1700734452586</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="D7" t="n">
-        <v>502.1700734452586</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="E7" t="n">
-        <v>502.1700734452586</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="F7" t="n">
-        <v>344.8441386582315</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>867.5330721651753</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>867.5330721651753</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>867.5330721651753</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>867.5330721651753</v>
       </c>
       <c r="X7" t="n">
-        <v>502.1700734452586</v>
+        <v>633.4527499481584</v>
       </c>
       <c r="Y7" t="n">
-        <v>502.1700734452586</v>
+        <v>410.3406887648017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>593.067601693622</v>
+        <v>182.839545823232</v>
       </c>
       <c r="C8" t="n">
-        <v>593.067601693622</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,19 +4808,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4838,16 +4838,16 @@
         <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1383.014952471962</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1383.014952471962</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>993.562347405019</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>993.562347405019</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769802</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.4030175052487</v>
+        <v>559.0882834477352</v>
       </c>
       <c r="C10" t="n">
-        <v>847.4030175052487</v>
+        <v>388.8831655137244</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>233.2500524162392</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>847.4030175052487</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>847.4030175052487</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.4030175052487</v>
+        <v>744.2963021390365</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.640162217124</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1359.260935866248</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2651.689396636281</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2651.689396636281</v>
+        <v>2806.753625320257</v>
       </c>
       <c r="X11" t="n">
-        <v>2334.033066715532</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2009.338632782327</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500.0810915202312</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="C13" t="n">
-        <v>401.6722487324145</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="D13" t="n">
-        <v>401.6722487324145</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="E13" t="n">
-        <v>317.9097117378108</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131561</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208439</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U13" t="n">
-        <v>1332.809865128935</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>1138.626795095953</v>
+        <v>924.9842784840484</v>
       </c>
       <c r="W13" t="n">
-        <v>927.0926681733246</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="X13" t="n">
-        <v>764.8086211025015</v>
+        <v>646.7040029746792</v>
       </c>
       <c r="Y13" t="n">
-        <v>613.4928350653387</v>
+        <v>495.3882169375164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1400.750247481884</v>
+        <v>1651.747936481893</v>
       </c>
       <c r="C14" t="n">
-        <v>1079.371021131009</v>
+        <v>1330.368710131017</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1016.723856493879</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>685.9366067566175</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2622.79717090105</v>
       </c>
       <c r="X14" t="n">
-        <v>2054.143151980292</v>
+        <v>2305.140840980301</v>
       </c>
       <c r="Y14" t="n">
-        <v>1729.448718047087</v>
+        <v>1980.446407047096</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420613</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542444</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.712914377463</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581897</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.410653902774</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1293.640913517783</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1293.640913517783</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.640913517783</v>
+        <v>741.8597555915625</v>
       </c>
       <c r="W16" t="n">
-        <v>1082.106786595154</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243314</v>
+        <v>489.8034939937001</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871686</v>
+        <v>489.8034939937001</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5546,10 +5546,10 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5601,10 +5601,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5671,25 +5671,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5744,16 +5744,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6017,10 +6017,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.407894603582</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>2181.928177194563</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2181.928177194563</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6227,22 +6227,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,19 +6254,19 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>357.2653989400741</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>357.2653989400741</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>985.0370485667553</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,13 +6385,13 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,7 +6424,7 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
         <v>594.5974356026481</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662628</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118093</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6601,34 +6601,34 @@
         <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879675</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744551</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309769</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1219.219822695429</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1876.872843314992</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2404.684126952454</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076163</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374183</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465404</v>
+        <v>575.8353109291581</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>870.6770655353504</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
         <v>827.8895422975447</v>
@@ -7403,7 +7403,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214671</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7807,22 +7807,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>658.486282035397</v>
       </c>
       <c r="N2" t="n">
-        <v>277.0332190646257</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211824</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>574.7607069788153</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>210.7551798924874</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>658.486282035397</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>544.1202775014863</v>
       </c>
       <c r="N6" t="n">
-        <v>554.0405189317977</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>470.2375325962349</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,7 +9015,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>291.5199566763059</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502995</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>115.0989755892053</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286869</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056832</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>283.1812970473225</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362806</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>195.5431439939138</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.46550766583385</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.58251949924129</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>127.896126334486</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.0771078338489</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.516015568519</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.544293271633</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.867718748507823e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1193898.560736675</v>
+        <v>1193297.013122915</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1193898.560736675</v>
+        <v>1193297.013122915</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1061642.238242916</v>
+        <v>1061642.238242917</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.08904667837</v>
       </c>
       <c r="C2" t="n">
-        <v>90166.08904667839</v>
+        <v>90166.08904667837</v>
       </c>
       <c r="D2" t="n">
         <v>90166.0890466784</v>
       </c>
       <c r="E2" t="n">
-        <v>79679.51171220042</v>
+        <v>79679.51171220039</v>
       </c>
       <c r="F2" t="n">
-        <v>79679.51171220037</v>
+        <v>79679.51171220039</v>
       </c>
       <c r="G2" t="n">
+        <v>90166.08904667842</v>
+      </c>
+      <c r="H2" t="n">
         <v>90166.08904667845</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>90166.08904667842</v>
       </c>
-      <c r="I2" t="n">
-        <v>90166.08904667843</v>
-      </c>
       <c r="J2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.0890466784</v>
       </c>
       <c r="K2" t="n">
         <v>90166.08904667843</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667859</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="M2" t="n">
         <v>90166.08904667843</v>
@@ -26350,7 +26350,7 @@
         <v>90166.08904667843</v>
       </c>
       <c r="O2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667843</v>
       </c>
       <c r="P2" t="n">
         <v>90166.08904667845</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539689</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805096</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26491,22 +26491,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-347668.666739358</v>
+        <v>-343918.7685388235</v>
       </c>
       <c r="C6" t="n">
-        <v>-165463.7184475021</v>
+        <v>-170060.1115047685</v>
       </c>
       <c r="D6" t="n">
-        <v>-171479.5201052754</v>
+        <v>-179215.8093286671</v>
       </c>
       <c r="E6" t="n">
-        <v>-185522.1509697356</v>
+        <v>-185731.8825164252</v>
       </c>
       <c r="F6" t="n">
-        <v>-73399.58949569128</v>
+        <v>-73609.32104238072</v>
       </c>
       <c r="G6" t="n">
         <v>-163081.0038051564</v>
@@ -26543,22 +26543,22 @@
         <v>-115655.6782684744</v>
       </c>
       <c r="J6" t="n">
-        <v>-328697.5958657601</v>
+        <v>-322181.3107111867</v>
       </c>
       <c r="K6" t="n">
-        <v>-121895.4466712575</v>
+        <v>-121895.4466712574</v>
       </c>
       <c r="L6" t="n">
-        <v>-177078.0356058785</v>
+        <v>-181126.8728163509</v>
       </c>
       <c r="M6" t="n">
-        <v>-157856.5077280974</v>
+        <v>-158908.2027392856</v>
       </c>
       <c r="N6" t="n">
-        <v>-115655.6782684744</v>
+        <v>-115655.6782684745</v>
       </c>
       <c r="O6" t="n">
-        <v>-143423.3723112458</v>
+        <v>-143423.3723112456</v>
       </c>
       <c r="P6" t="n">
         <v>-115655.6782684744</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.70961755346401</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924612</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287428</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346399</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660692</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>362.6933045843589</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>69.72838925878834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.03005425080744</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,7 +27552,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>50.46659169522415</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>198.8597256814077</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>147.0171729598075</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>158.6988361520598</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>73.8917346368425</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>276.8290585598261</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>42.80072689596904</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>180.1536926616653</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>18.46188697250406</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634528666</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>28.01250026485258</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159795</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566546</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031047</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.714468612541</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5.636002634527857</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,17 +30879,17 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>508.7612304376698</v>
       </c>
       <c r="N2" t="n">
-        <v>127.9147277268415</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701577</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>482.0731480899264</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>93.07534195014132</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>508.7612304376698</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>451.7331554521743</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776311</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>316.9893628657432</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>216.1858117176445</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.5318035203919</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169661</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907923</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576869</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833217</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>22.71185353989343</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397981</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>264.9671660031024</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496199</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563713</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
